--- a/_site/Data/DebtandOverdueBills.xlsx
+++ b/_site/Data/DebtandOverdueBills.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566A022A-96C5-0C4B-B9E3-F8B67FCF78A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566A022A-96C5-0C4B-B9E3-F8B67FCF78A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44180" yWindow="-4920" windowWidth="26840" windowHeight="15540" xr2:uid="{3E9CDE0F-FA6F-034A-9811-7F7D1FC042E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,10 +45,10 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Occurrence</t>
-  </si>
-  <si>
     <t>Source Link</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
   </si>
   <si>
     <t xml:space="preserve">Do you currently have overdue bills and/or debt? 
@@ -48,6 +57,9 @@
   <si>
     <t>•Yes
 •No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/14/2021-04/16/2021  04/28/2021-05/01/2021 05/12/2021-05/15/2021 06/09/2021-06/11/2021 </t>
   </si>
   <si>
     <t>How much do you owe for each of the following that is past due or unpaid?  
@@ -67,9 +79,6 @@
     <t>Have you used any of the following to reduce your debt in the last month? (select all that apply):</t>
   </si>
   <si>
-    <t>How does the amount of debt you have now compare to the amount of debt you had in February 2020 (before the pandemic)?</t>
-  </si>
-  <si>
     <t xml:space="preserve">•Tax refund
 •Stimulus payment
 •Housing assistance
@@ -80,6 +89,9 @@
 </t>
   </si>
   <si>
+    <t>How does the amount of debt you have now compare to the amount of debt you had in February 2020 (before the pandemic)?</t>
+  </si>
+  <si>
     <t>•Much lower
 •Slightly lower
 •About the same
@@ -93,20 +105,17 @@
     <t>Open Ended</t>
   </si>
   <si>
-    <t>53, 55, 57, 61</t>
-  </si>
-  <si>
     <t>What would you like your policymakers to know about your debt, including the debt you’ve accrued during the pandemic?</t>
   </si>
   <si>
-    <t>55, 57, 61</t>
+    <t xml:space="preserve">04/28/2021-05/01/2021 05/12/2021-05/15/2021 06/09/2021-06/11/2021 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -497,19 +506,19 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="75.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="75.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="26.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="4" width="26.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,13 +529,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" ht="78.75">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -534,104 +543,104 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="170" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="157.5">
       <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" ht="126">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="78.75">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="78.75">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="47.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>

--- a/_site/Data/DebtandOverdueBills.xlsx
+++ b/_site/Data/DebtandOverdueBills.xlsx
@@ -87,7 +87,7 @@
     <t>When you don’t have enough money to pay all your bills, how do you decide which bills to pay?</t>
   </si>
   <si>
-    <t>Open Ended</t>
+    <t>Open ended response</t>
   </si>
   <si>
     <t>What would you like your policymakers to know about your debt, including the debt you’ve accrued during the pandemic?</t>
@@ -598,7 +598,7 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -634,7 +634,7 @@
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="8" t="s">
